--- a/teaching/traditional_assets/database/data/bermuda/bermuda_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.318</v>
+        <v>0.233</v>
       </c>
       <c r="E2">
-        <v>0.469</v>
+        <v>0.252</v>
       </c>
       <c r="F2">
-        <v>0.101</v>
+        <v>-0.0839</v>
       </c>
       <c r="G2">
-        <v>0.6735184517369875</v>
+        <v>0.718479769403224</v>
       </c>
       <c r="H2">
-        <v>0.6735184517369875</v>
+        <v>0.718479769403224</v>
       </c>
       <c r="I2">
-        <v>0.7780757383788695</v>
+        <v>0.5636350899270569</v>
       </c>
       <c r="J2">
-        <v>0.6564823098117303</v>
+        <v>0.4745713934867212</v>
       </c>
       <c r="K2">
-        <v>537.3</v>
+        <v>436.4</v>
       </c>
       <c r="L2">
-        <v>0.6458708979444644</v>
+        <v>0.4658908935625066</v>
       </c>
       <c r="M2">
-        <v>23.75</v>
+        <v>72.72</v>
       </c>
       <c r="N2">
-        <v>0.004656223655576686</v>
+        <v>0.01497312990302057</v>
       </c>
       <c r="O2">
-        <v>0.04420249395123767</v>
+        <v>0.1666361136571952</v>
       </c>
       <c r="P2">
-        <v>14.7</v>
+        <v>66.2</v>
       </c>
       <c r="Q2">
-        <v>0.002881957378399043</v>
+        <v>0.01363065455968044</v>
       </c>
       <c r="R2">
-        <v>0.02735901730876605</v>
+        <v>0.1516956920256645</v>
       </c>
       <c r="S2">
-        <v>9.050000000000001</v>
+        <v>6.519999999999996</v>
       </c>
       <c r="T2">
-        <v>0.3810526315789474</v>
+        <v>0.0896589658965896</v>
       </c>
       <c r="U2">
-        <v>49.6</v>
+        <v>118.7</v>
       </c>
       <c r="V2">
-        <v>0.00972415550806752</v>
+        <v>0.02444046368933638</v>
       </c>
       <c r="W2">
-        <v>0.2425624125321656</v>
+        <v>0.152843933875035</v>
       </c>
       <c r="X2">
-        <v>0.02867028856328478</v>
+        <v>0.01921858328392602</v>
       </c>
       <c r="Y2">
-        <v>0.2138921239688808</v>
+        <v>0.133625350591109</v>
       </c>
       <c r="Z2">
-        <v>0.3434418710930191</v>
+        <v>0.3078955918229607</v>
       </c>
       <c r="AA2">
-        <v>0.2254635128212077</v>
+        <v>0.1461184400598412</v>
       </c>
       <c r="AB2">
-        <v>0.02897929201063784</v>
+        <v>0.02038118342966721</v>
       </c>
       <c r="AC2">
-        <v>0.1964842208105698</v>
+        <v>0.125737256630174</v>
       </c>
       <c r="AD2">
-        <v>236.3</v>
+        <v>424.7</v>
       </c>
       <c r="AE2">
-        <v>13.44396621309201</v>
+        <v>12.56505632662863</v>
       </c>
       <c r="AF2">
-        <v>249.743966213092</v>
+        <v>437.2650563266286</v>
       </c>
       <c r="AG2">
-        <v>200.143966213092</v>
+        <v>318.5650563266286</v>
       </c>
       <c r="AH2">
-        <v>0.04667724169997325</v>
+        <v>0.08259689130438606</v>
       </c>
       <c r="AI2">
-        <v>0.08043429090209615</v>
+        <v>0.1045147254780482</v>
       </c>
       <c r="AJ2">
-        <v>0.0377570001095645</v>
+        <v>0.06155531221288676</v>
       </c>
       <c r="AK2">
-        <v>0.06550619780500785</v>
+        <v>0.07836653335494168</v>
       </c>
       <c r="AL2">
-        <v>10.5</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AM2">
-        <v>10.5</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AN2">
-        <v>0.361552702847438</v>
+        <v>0.7953630353765192</v>
       </c>
       <c r="AO2">
-        <v>61.64761904761905</v>
+        <v>57.71334792122538</v>
       </c>
       <c r="AP2">
-        <v>0.3062318744940742</v>
+        <v>0.5965972925943941</v>
       </c>
       <c r="AQ2">
-        <v>61.64761904761905</v>
+        <v>57.71334792122538</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.318</v>
+        <v>0.233</v>
       </c>
       <c r="E3">
-        <v>0.469</v>
+        <v>0.252</v>
       </c>
       <c r="F3">
-        <v>0.101</v>
+        <v>-0.0839</v>
       </c>
       <c r="G3">
-        <v>0.6735184517369875</v>
+        <v>0.718479769403224</v>
       </c>
       <c r="H3">
-        <v>0.6735184517369875</v>
+        <v>0.718479769403224</v>
       </c>
       <c r="I3">
-        <v>0.7780757383788695</v>
+        <v>0.5636350899270569</v>
       </c>
       <c r="J3">
-        <v>0.6564823098117303</v>
+        <v>0.4745713934867212</v>
       </c>
       <c r="K3">
-        <v>537.3</v>
+        <v>436.4</v>
       </c>
       <c r="L3">
-        <v>0.6458708979444644</v>
+        <v>0.4658908935625066</v>
       </c>
       <c r="M3">
-        <v>23.75</v>
+        <v>72.72</v>
       </c>
       <c r="N3">
-        <v>0.004656223655576686</v>
+        <v>0.01497312990302057</v>
       </c>
       <c r="O3">
-        <v>0.04420249395123767</v>
+        <v>0.1666361136571952</v>
       </c>
       <c r="P3">
-        <v>14.7</v>
+        <v>66.2</v>
       </c>
       <c r="Q3">
-        <v>0.002881957378399043</v>
+        <v>0.01363065455968044</v>
       </c>
       <c r="R3">
-        <v>0.02735901730876605</v>
+        <v>0.1516956920256645</v>
       </c>
       <c r="S3">
-        <v>9.050000000000001</v>
+        <v>6.519999999999996</v>
       </c>
       <c r="T3">
-        <v>0.3810526315789474</v>
+        <v>0.0896589658965896</v>
       </c>
       <c r="U3">
-        <v>49.6</v>
+        <v>118.7</v>
       </c>
       <c r="V3">
-        <v>0.00972415550806752</v>
+        <v>0.02444046368933638</v>
       </c>
       <c r="W3">
-        <v>0.2425624125321656</v>
+        <v>0.152843933875035</v>
       </c>
       <c r="X3">
-        <v>0.02867028856328478</v>
+        <v>0.01921858328392602</v>
       </c>
       <c r="Y3">
-        <v>0.2138921239688808</v>
+        <v>0.133625350591109</v>
       </c>
       <c r="Z3">
-        <v>0.3434418710930191</v>
+        <v>0.3078955918229607</v>
       </c>
       <c r="AA3">
-        <v>0.2254635128212077</v>
+        <v>0.1461184400598412</v>
       </c>
       <c r="AB3">
-        <v>0.02897929201063784</v>
+        <v>0.02038118342966721</v>
       </c>
       <c r="AC3">
-        <v>0.1964842208105698</v>
+        <v>0.125737256630174</v>
       </c>
       <c r="AD3">
-        <v>236.3</v>
+        <v>424.7</v>
       </c>
       <c r="AE3">
-        <v>13.44396621309201</v>
+        <v>12.56505632662863</v>
       </c>
       <c r="AF3">
-        <v>249.743966213092</v>
+        <v>437.2650563266286</v>
       </c>
       <c r="AG3">
-        <v>200.143966213092</v>
+        <v>318.5650563266286</v>
       </c>
       <c r="AH3">
-        <v>0.04667724169997325</v>
+        <v>0.08259689130438606</v>
       </c>
       <c r="AI3">
-        <v>0.08043429090209615</v>
+        <v>0.1045147254780482</v>
       </c>
       <c r="AJ3">
-        <v>0.0377570001095645</v>
+        <v>0.06155531221288676</v>
       </c>
       <c r="AK3">
-        <v>0.06550619780500785</v>
+        <v>0.07836653335494168</v>
       </c>
       <c r="AL3">
-        <v>10.5</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AM3">
-        <v>10.5</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AN3">
-        <v>0.361552702847438</v>
+        <v>0.7953630353765192</v>
       </c>
       <c r="AO3">
-        <v>61.64761904761905</v>
+        <v>57.71334792122538</v>
       </c>
       <c r="AP3">
-        <v>0.3062318744940742</v>
+        <v>0.5965972925943941</v>
       </c>
       <c r="AQ3">
-        <v>61.64761904761905</v>
+        <v>57.71334792122538</v>
       </c>
     </row>
   </sheetData>
